--- a/results/KerasTraining.xlsx
+++ b/results/KerasTraining.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\richard\projects\github\UMaaS\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\richard\GitHub\UMaaS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890979F7-FC2C-496B-91EB-068A1D58E201}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31575" windowHeight="10170" activeTab="2" xr2:uid="{E8738E54-8A2C-4A61-8BB1-447D2A82F131}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31575" windowHeight="10170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
     <sheet name="MSECBar" sheetId="2" r:id="rId2"/>
     <sheet name="EpochVsCBar" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="233">
   <si>
     <t>loss: 3.0443e-04 - mean_squared_error: 3.0443e-04 - mean_absolute_error: 0.0080</t>
   </si>
@@ -714,12 +713,30 @@
   </si>
   <si>
     <t>CBar error =  -4.482208398144678  CBarObs= 4.853753137120694  CBarPred= 0.3715447389760158</t>
+  </si>
+  <si>
+    <t>Inference time (GPU):  4.456438302993774  seconds</t>
+  </si>
+  <si>
+    <t>Inference time (GPU):  3.9537227153778076  seconds</t>
+  </si>
+  <si>
+    <t>Inference time (GPU):  4.683342933654785  seconds</t>
+  </si>
+  <si>
+    <t>Inference time (GPU):  3.474015712738037  seconds</t>
+  </si>
+  <si>
+    <t>Inference time (GPU):  3.5779566764831543  seconds</t>
+  </si>
+  <si>
+    <t>Inference time (GPU):  3.8418056964874268  seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -791,7 +808,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -804,17 +821,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="2000"/>
               <a:t>Number</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2000" baseline="0"/>
               <a:t> of Training Epochs Against Model Error for the Six Models</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -828,7 +846,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -873,7 +891,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -976,7 +994,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1067,7 +1085,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1212,7 +1230,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="x"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -1349,7 +1367,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="plus"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -1480,7 +1498,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:pattFill prst="pct5">
                 <a:fgClr>
@@ -1700,7 +1718,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1713,17 +1731,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t> of training Epochs</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1737,7 +1756,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1822,7 +1841,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1835,17 +1854,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>CBar</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t> Error</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1859,7 +1879,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1926,6 +1946,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89174842988337921"/>
+          <c:y val="0.20648033778386402"/>
+          <c:w val="8.6971438230071113E-2"/>
+          <c:h val="0.52232048385256191"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1939,7 +1969,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1957,6 +1987,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1964,7 +1995,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2892,7 +2922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92D2B67-219B-4270-814D-C6B022354C31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H350"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -4223,11 +4253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E23D635-8B71-4C25-9A6A-ADC9C7B9A5F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,6 +4541,9 @@
       <c r="O8">
         <v>3309.5574495792298</v>
       </c>
+      <c r="P8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4676,6 +4709,9 @@
       <c r="O14">
         <v>2012.1768150329499</v>
       </c>
+      <c r="P14" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4719,7 +4755,7 @@
         <v>2.2191250029320999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>200000</v>
       </c>
@@ -4749,7 +4785,7 @@
         <v>0.1869028545251803</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>200000</v>
       </c>
@@ -4779,7 +4815,7 @@
         <v>1.1247036072998502</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>200000</v>
       </c>
@@ -4809,7 +4845,7 @@
         <v>2.4720816240992103</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>200000</v>
       </c>
@@ -4839,7 +4875,7 @@
         <v>0.21468309643312011</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>200000</v>
       </c>
@@ -4869,7 +4905,7 @@
         <v>0.67050636430200949</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>200000</v>
       </c>
@@ -4899,7 +4935,7 @@
         <v>1.7092865017446801</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>200000</v>
       </c>
@@ -4929,7 +4965,7 @@
         <v>0.50571167971003028</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>200000</v>
       </c>
@@ -4959,7 +4995,7 @@
         <v>0.80223849896990007</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>200000</v>
       </c>
@@ -4989,7 +5025,7 @@
         <v>1.4373327170830001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>200000</v>
       </c>
@@ -5019,7 +5055,7 @@
         <v>0.36531236686073054</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>200000</v>
       </c>
@@ -5049,7 +5085,7 @@
         <v>1.1922925499210302</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -5082,7 +5118,7 @@
         <v>0.33825461451360006</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>200000</v>
       </c>
@@ -5114,8 +5150,11 @@
       <c r="O29">
         <v>1374.25139689445</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5157,7 +5196,7 @@
         <v>2.2594131402936903</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>200000</v>
       </c>
@@ -5187,7 +5226,7 @@
         <v>0.39815680294644018</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>200000</v>
       </c>
@@ -5217,7 +5256,7 @@
         <v>1.1798210561628601</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>200000</v>
       </c>
@@ -5247,7 +5286,7 @@
         <v>0.95613593445591016</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>200000</v>
       </c>
@@ -5277,7 +5316,7 @@
         <v>1.0511252615098901</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>200000</v>
       </c>
@@ -5307,7 +5346,7 @@
         <v>0.61872554425511961</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E37">
         <v>200000</v>
       </c>
@@ -5337,7 +5376,7 @@
         <v>0.41510039156298983</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E38">
         <v>200000</v>
       </c>
@@ -5367,7 +5406,7 @@
         <v>0.15456361229464033</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E39">
         <v>200000</v>
       </c>
@@ -5397,7 +5436,7 @@
         <v>1.6889055602519853E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>200000</v>
       </c>
@@ -5427,7 +5466,7 @@
         <v>0.36726033842126959</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>200000</v>
       </c>
@@ -5457,7 +5496,7 @@
         <v>1.1368222763591902</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>200000</v>
       </c>
@@ -5487,7 +5526,7 @@
         <v>0.62939979244802036</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -5522,8 +5561,11 @@
       <c r="O43">
         <v>1150.6096498966201</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -5565,7 +5607,7 @@
         <v>2.07878360495884</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>200000</v>
       </c>
@@ -5595,7 +5637,7 @@
         <v>0.9550904346053799</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>200000</v>
       </c>
@@ -5625,7 +5667,7 @@
         <v>1.3525046666645699</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>200000</v>
       </c>
@@ -5655,7 +5697,7 @@
         <v>1.88269244384318</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>200000</v>
       </c>
@@ -5685,7 +5727,7 @@
         <v>0.18887296889518002</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>200000</v>
       </c>
@@ -5715,7 +5757,7 @@
         <v>0.3043058955417699</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>200000</v>
       </c>
@@ -5745,7 +5787,7 @@
         <v>0.46431737118965</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>200000</v>
       </c>
@@ -5775,7 +5817,7 @@
         <v>0.23748893347412015</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>200000</v>
       </c>
@@ -5805,7 +5847,7 @@
         <v>0.2069800909152395</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>200000</v>
       </c>
@@ -5835,7 +5877,7 @@
         <v>0.64059856680774985</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>200000</v>
       </c>
@@ -5865,7 +5907,7 @@
         <v>0.7726293527635395</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>200000</v>
       </c>
@@ -5895,7 +5937,7 @@
         <v>0.60305581381953033</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G57" s="1">
         <v>1.7702000000000001E-4</v>
       </c>
@@ -5921,8 +5963,11 @@
       <c r="O57">
         <v>992.01140403747502</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>191</v>
       </c>
@@ -5964,7 +6009,7 @@
         <v>0.20394115009441016</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>200000</v>
       </c>
@@ -5994,7 +6039,7 @@
         <v>0.28861153472915024</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>200000</v>
       </c>
@@ -6024,7 +6069,7 @@
         <v>0.93684538907828996</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62">
         <v>250000</v>
       </c>
@@ -6054,7 +6099,7 @@
         <v>3.3086621694059737E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63">
         <v>500</v>
       </c>
@@ -6084,7 +6129,7 @@
         <v>0.78861370855978041</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64">
         <v>1000</v>
       </c>
@@ -6114,7 +6159,7 @@
         <v>0.65470053569192999</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E65">
         <v>2000</v>
       </c>
@@ -6144,7 +6189,7 @@
         <v>6.0372858608680247E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E66">
         <v>4000</v>
       </c>
@@ -6174,7 +6219,7 @@
         <v>6.988179854891019E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E67">
         <v>8000</v>
       </c>
@@ -6204,7 +6249,7 @@
         <v>7.4251936803889862E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E68">
         <v>16000</v>
       </c>
@@ -6234,7 +6279,7 @@
         <v>0.45800034813994994</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E69">
         <v>32000</v>
       </c>
@@ -6264,7 +6309,7 @@
         <v>6.8751272404010244E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E70">
         <v>64000</v>
       </c>
@@ -6294,7 +6339,7 @@
         <v>0.3027256747386895</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>128000</v>
       </c>
@@ -6324,7 +6369,7 @@
         <v>0.20083651073659947</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E72">
         <v>12500</v>
       </c>
@@ -6354,7 +6399,7 @@
         <v>0.13403122383025945</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E73">
         <v>62500</v>
       </c>
@@ -6384,7 +6429,7 @@
         <v>0.19765635415221006</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E74">
         <v>31250</v>
       </c>
@@ -6414,7 +6459,7 @@
         <v>3.4844744444689546E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E75">
         <v>25000</v>
       </c>
@@ -6444,7 +6489,7 @@
         <v>0.23488962598051977</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>188</v>
       </c>
@@ -6477,7 +6522,7 @@
         <v>3.4869323532189966E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>200000</v>
       </c>
@@ -6508,8 +6553,11 @@
       <c r="O77">
         <v>1129.3500764369901</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -6551,7 +6599,7 @@
         <v>0.66609349608846014</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E80">
         <v>31250</v>
       </c>
@@ -6648,11 +6696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57C0062-69FA-49FD-86ED-F9532AD3DBEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6716,7 +6764,7 @@
         <v>1000</v>
       </c>
       <c r="I2">
-        <f>ABS(F2-E2)</f>
+        <f t="shared" ref="I2:I8" si="0">ABS(F2-E2)</f>
         <v>1.9195463170226796</v>
       </c>
     </row>
@@ -6734,7 +6782,7 @@
         <v>2000</v>
       </c>
       <c r="I3">
-        <f>ABS(F3-E3)</f>
+        <f t="shared" si="0"/>
         <v>1.7434944503254997</v>
       </c>
     </row>
@@ -6752,7 +6800,7 @@
         <v>3000</v>
       </c>
       <c r="I4">
-        <f>ABS(F4-E4)</f>
+        <f t="shared" si="0"/>
         <v>1.9180387472105798</v>
       </c>
     </row>
@@ -6770,7 +6818,7 @@
         <v>4000</v>
       </c>
       <c r="I5">
-        <f>ABS(F5-E5)</f>
+        <f t="shared" si="0"/>
         <v>1.4998337040983998</v>
       </c>
     </row>
@@ -6788,7 +6836,7 @@
         <v>5000</v>
       </c>
       <c r="I6">
-        <f>ABS(F6-E6)</f>
+        <f t="shared" si="0"/>
         <v>1.8336085423914499</v>
       </c>
     </row>
@@ -6806,7 +6854,7 @@
         <v>10000</v>
       </c>
       <c r="I7">
-        <f>ABS(F7-E7)</f>
+        <f t="shared" si="0"/>
         <v>0.6479549227810999</v>
       </c>
     </row>
@@ -6827,7 +6875,7 @@
         <v>10000</v>
       </c>
       <c r="I8">
-        <f>ABS(F8-E8)</f>
+        <f t="shared" si="0"/>
         <v>0.64783018341991028</v>
       </c>
     </row>
@@ -6959,7 +7007,7 @@
         <v>1000</v>
       </c>
       <c r="I16">
-        <f>ABS(F16-E16)</f>
+        <f t="shared" ref="I16:I29" si="1">ABS(F16-E16)</f>
         <v>2.2191250029320999</v>
       </c>
     </row>
@@ -6977,7 +7025,7 @@
         <v>2000</v>
       </c>
       <c r="I17">
-        <f>ABS(F17-E17)</f>
+        <f t="shared" si="1"/>
         <v>0.1869028545251803</v>
       </c>
     </row>
@@ -6995,7 +7043,7 @@
         <v>3000</v>
       </c>
       <c r="I18">
-        <f>ABS(F18-E18)</f>
+        <f t="shared" si="1"/>
         <v>1.1247036072998502</v>
       </c>
     </row>
@@ -7013,7 +7061,7 @@
         <v>4000</v>
       </c>
       <c r="I19">
-        <f>ABS(F19-E19)</f>
+        <f t="shared" si="1"/>
         <v>2.4720816240992103</v>
       </c>
     </row>
@@ -7031,7 +7079,7 @@
         <v>5000</v>
       </c>
       <c r="I20">
-        <f>ABS(F20-E20)</f>
+        <f t="shared" si="1"/>
         <v>0.21468309643312011</v>
       </c>
     </row>
@@ -7049,7 +7097,7 @@
         <v>6000</v>
       </c>
       <c r="I21">
-        <f>ABS(F21-E21)</f>
+        <f t="shared" si="1"/>
         <v>0.67050636430200949</v>
       </c>
     </row>
@@ -7067,7 +7115,7 @@
         <v>7000</v>
       </c>
       <c r="I22">
-        <f>ABS(F22-E22)</f>
+        <f t="shared" si="1"/>
         <v>1.7092865017446801</v>
       </c>
     </row>
@@ -7085,7 +7133,7 @@
         <v>8000</v>
       </c>
       <c r="I23">
-        <f>ABS(F23-E23)</f>
+        <f t="shared" si="1"/>
         <v>0.50571167971003028</v>
       </c>
     </row>
@@ -7103,7 +7151,7 @@
         <v>9000</v>
       </c>
       <c r="I24">
-        <f>ABS(F24-E24)</f>
+        <f t="shared" si="1"/>
         <v>0.80223849896990007</v>
       </c>
     </row>
@@ -7121,7 +7169,7 @@
         <v>10000</v>
       </c>
       <c r="I25">
-        <f>ABS(F25-E25)</f>
+        <f t="shared" si="1"/>
         <v>1.4373327170830001</v>
       </c>
     </row>
@@ -7139,7 +7187,7 @@
         <v>20000</v>
       </c>
       <c r="I26">
-        <f>ABS(F26-E26)</f>
+        <f t="shared" si="1"/>
         <v>0.36531236686073054</v>
       </c>
     </row>
@@ -7157,7 +7205,7 @@
         <v>30000</v>
       </c>
       <c r="I27">
-        <f>ABS(F27-E27)</f>
+        <f t="shared" si="1"/>
         <v>1.1922925499210302</v>
       </c>
     </row>
@@ -7178,7 +7226,7 @@
         <v>10000</v>
       </c>
       <c r="I28">
-        <f>ABS(F28-E28)</f>
+        <f t="shared" si="1"/>
         <v>0.33825461451360006</v>
       </c>
     </row>
@@ -7196,7 +7244,7 @@
         <v>10000</v>
       </c>
       <c r="I29">
-        <f>ABS(F29-E29)</f>
+        <f t="shared" si="1"/>
         <v>0.33751215575188009</v>
       </c>
     </row>
@@ -7226,7 +7274,7 @@
         <v>1000</v>
       </c>
       <c r="I31">
-        <f>ABS(F31-E31)</f>
+        <f t="shared" ref="I31:I43" si="2">ABS(F31-E31)</f>
         <v>2.2594131402936903</v>
       </c>
     </row>
@@ -7244,7 +7292,7 @@
         <v>2000</v>
       </c>
       <c r="I32">
-        <f>ABS(F32-E32)</f>
+        <f t="shared" si="2"/>
         <v>0.39815680294644018</v>
       </c>
     </row>
@@ -7262,7 +7310,7 @@
         <v>3000</v>
       </c>
       <c r="I33">
-        <f>ABS(F33-E33)</f>
+        <f t="shared" si="2"/>
         <v>1.1798210561628601</v>
       </c>
     </row>
@@ -7280,7 +7328,7 @@
         <v>4000</v>
       </c>
       <c r="I34">
-        <f>ABS(F34-E34)</f>
+        <f t="shared" si="2"/>
         <v>0.95613593445591016</v>
       </c>
     </row>
@@ -7298,7 +7346,7 @@
         <v>5000</v>
       </c>
       <c r="I35">
-        <f>ABS(F35-E35)</f>
+        <f t="shared" si="2"/>
         <v>1.0511252615098901</v>
       </c>
     </row>
@@ -7316,7 +7364,7 @@
         <v>6000</v>
       </c>
       <c r="I36">
-        <f>ABS(F36-E36)</f>
+        <f t="shared" si="2"/>
         <v>0.61872554425511961</v>
       </c>
     </row>
@@ -7334,7 +7382,7 @@
         <v>7000</v>
       </c>
       <c r="I37">
-        <f>ABS(F37-E37)</f>
+        <f t="shared" si="2"/>
         <v>0.41510039156298983</v>
       </c>
     </row>
@@ -7352,7 +7400,7 @@
         <v>8000</v>
       </c>
       <c r="I38">
-        <f>ABS(F38-E38)</f>
+        <f t="shared" si="2"/>
         <v>0.15456361229464033</v>
       </c>
     </row>
@@ -7370,7 +7418,7 @@
         <v>9000</v>
       </c>
       <c r="I39">
-        <f>ABS(F39-E39)</f>
+        <f t="shared" si="2"/>
         <v>1.6889055602519853E-2</v>
       </c>
     </row>
@@ -7388,7 +7436,7 @@
         <v>10000</v>
       </c>
       <c r="I40">
-        <f>ABS(F40-E40)</f>
+        <f t="shared" si="2"/>
         <v>0.36726033842126959</v>
       </c>
     </row>
@@ -7406,7 +7454,7 @@
         <v>20000</v>
       </c>
       <c r="I41">
-        <f>ABS(F41-E41)</f>
+        <f t="shared" si="2"/>
         <v>1.1368222763591902</v>
       </c>
     </row>
@@ -7424,7 +7472,7 @@
         <v>30000</v>
       </c>
       <c r="I42">
-        <f>ABS(F42-E42)</f>
+        <f t="shared" si="2"/>
         <v>0.62939979244802036</v>
       </c>
     </row>
@@ -7445,7 +7493,7 @@
         <v>10000</v>
       </c>
       <c r="I43">
-        <f>ABS(F43-E43)</f>
+        <f t="shared" si="2"/>
         <v>0.36725922398867983</v>
       </c>
     </row>
@@ -7475,7 +7523,7 @@
         <v>1000</v>
       </c>
       <c r="I45">
-        <f>ABS(F45-E45)</f>
+        <f t="shared" ref="I45:I57" si="3">ABS(F45-E45)</f>
         <v>2.07878360495884</v>
       </c>
     </row>
@@ -7493,7 +7541,7 @@
         <v>2000</v>
       </c>
       <c r="I46">
-        <f>ABS(F46-E46)</f>
+        <f t="shared" si="3"/>
         <v>0.9550904346053799</v>
       </c>
     </row>
@@ -7511,7 +7559,7 @@
         <v>3000</v>
       </c>
       <c r="I47">
-        <f>ABS(F47-E47)</f>
+        <f t="shared" si="3"/>
         <v>1.3525046666645699</v>
       </c>
     </row>
@@ -7529,7 +7577,7 @@
         <v>4000</v>
       </c>
       <c r="I48">
-        <f>ABS(F48-E48)</f>
+        <f t="shared" si="3"/>
         <v>1.88269244384318</v>
       </c>
     </row>
@@ -7547,7 +7595,7 @@
         <v>5000</v>
       </c>
       <c r="I49">
-        <f>ABS(F49-E49)</f>
+        <f t="shared" si="3"/>
         <v>0.18887296889518002</v>
       </c>
     </row>
@@ -7565,7 +7613,7 @@
         <v>6000</v>
       </c>
       <c r="I50">
-        <f>ABS(F50-E50)</f>
+        <f t="shared" si="3"/>
         <v>0.3043058955417699</v>
       </c>
     </row>
@@ -7583,7 +7631,7 @@
         <v>7000</v>
       </c>
       <c r="I51">
-        <f>ABS(F51-E51)</f>
+        <f t="shared" si="3"/>
         <v>0.46431737118965</v>
       </c>
     </row>
@@ -7601,7 +7649,7 @@
         <v>8000</v>
       </c>
       <c r="I52">
-        <f>ABS(F52-E52)</f>
+        <f t="shared" si="3"/>
         <v>0.23748893347412015</v>
       </c>
     </row>
@@ -7619,7 +7667,7 @@
         <v>9000</v>
       </c>
       <c r="I53">
-        <f>ABS(F53-E53)</f>
+        <f t="shared" si="3"/>
         <v>0.2069800909152395</v>
       </c>
     </row>
@@ -7637,7 +7685,7 @@
         <v>10000</v>
       </c>
       <c r="I54">
-        <f>ABS(F54-E54)</f>
+        <f t="shared" si="3"/>
         <v>0.64059856680774985</v>
       </c>
     </row>
@@ -7655,7 +7703,7 @@
         <v>20000</v>
       </c>
       <c r="I55">
-        <f>ABS(F55-E55)</f>
+        <f t="shared" si="3"/>
         <v>0.7726293527635395</v>
       </c>
     </row>
@@ -7673,7 +7721,7 @@
         <v>30000</v>
       </c>
       <c r="I56">
-        <f>ABS(F56-E56)</f>
+        <f t="shared" si="3"/>
         <v>0.60305581381953033</v>
       </c>
     </row>
@@ -7688,7 +7736,7 @@
         <v>0.64060002153286499</v>
       </c>
       <c r="I57">
-        <f>ABS(F57-E57)</f>
+        <f t="shared" si="3"/>
         <v>0.64060002153286</v>
       </c>
     </row>
@@ -7718,7 +7766,7 @@
         <v>10000</v>
       </c>
       <c r="I59">
-        <f>ABS(F59-E59)</f>
+        <f t="shared" ref="I59:I76" si="4">ABS(F59-E59)</f>
         <v>0.20394115009441016</v>
       </c>
     </row>
@@ -7736,7 +7784,7 @@
         <v>20000</v>
       </c>
       <c r="I60">
-        <f>ABS(F60-E60)</f>
+        <f t="shared" si="4"/>
         <v>0.28861153472915024</v>
       </c>
     </row>
@@ -7754,7 +7802,7 @@
         <v>30000</v>
       </c>
       <c r="I61">
-        <f>ABS(F61-E61)</f>
+        <f t="shared" si="4"/>
         <v>0.93684538907828996</v>
       </c>
     </row>
@@ -7772,7 +7820,7 @@
         <v>10000</v>
       </c>
       <c r="I62">
-        <f>ABS(F62-E62)</f>
+        <f t="shared" si="4"/>
         <v>3.3086621694059737E-2</v>
       </c>
     </row>
@@ -7790,7 +7838,7 @@
         <v>10000</v>
       </c>
       <c r="I63">
-        <f>ABS(F63-E63)</f>
+        <f t="shared" si="4"/>
         <v>0.78861370855978041</v>
       </c>
     </row>
@@ -7808,7 +7856,7 @@
         <v>10000</v>
       </c>
       <c r="I64">
-        <f>ABS(F64-E64)</f>
+        <f t="shared" si="4"/>
         <v>0.65470053569192999</v>
       </c>
     </row>
@@ -7826,7 +7874,7 @@
         <v>10000</v>
       </c>
       <c r="I65">
-        <f>ABS(F65-E65)</f>
+        <f t="shared" si="4"/>
         <v>6.0372858608680247E-2</v>
       </c>
     </row>
@@ -7844,7 +7892,7 @@
         <v>10000</v>
       </c>
       <c r="I66">
-        <f>ABS(F66-E66)</f>
+        <f t="shared" si="4"/>
         <v>6.988179854891019E-2</v>
       </c>
     </row>
@@ -7862,7 +7910,7 @@
         <v>10000</v>
       </c>
       <c r="I67">
-        <f>ABS(F67-E67)</f>
+        <f t="shared" si="4"/>
         <v>7.4251936803889862E-2</v>
       </c>
     </row>
@@ -7880,7 +7928,7 @@
         <v>10000</v>
       </c>
       <c r="I68">
-        <f>ABS(F68-E68)</f>
+        <f t="shared" si="4"/>
         <v>0.45800034813994994</v>
       </c>
     </row>
@@ -7898,7 +7946,7 @@
         <v>10000</v>
       </c>
       <c r="I69">
-        <f>ABS(F69-E69)</f>
+        <f t="shared" si="4"/>
         <v>6.8751272404010244E-2</v>
       </c>
     </row>
@@ -7916,7 +7964,7 @@
         <v>10000</v>
       </c>
       <c r="I70">
-        <f>ABS(F70-E70)</f>
+        <f t="shared" si="4"/>
         <v>0.3027256747386895</v>
       </c>
     </row>
@@ -7934,7 +7982,7 @@
         <v>10000</v>
       </c>
       <c r="I71">
-        <f>ABS(F71-E71)</f>
+        <f t="shared" si="4"/>
         <v>0.20083651073659947</v>
       </c>
     </row>
@@ -7952,7 +8000,7 @@
         <v>10000</v>
       </c>
       <c r="I72">
-        <f>ABS(F72-E72)</f>
+        <f t="shared" si="4"/>
         <v>0.13403122383025945</v>
       </c>
     </row>
@@ -7970,7 +8018,7 @@
         <v>10000</v>
       </c>
       <c r="I73">
-        <f>ABS(F73-E73)</f>
+        <f t="shared" si="4"/>
         <v>0.19765635415221006</v>
       </c>
     </row>
@@ -7988,7 +8036,7 @@
         <v>10000</v>
       </c>
       <c r="I74">
-        <f>ABS(F74-E74)</f>
+        <f t="shared" si="4"/>
         <v>3.4844744444689546E-2</v>
       </c>
     </row>
@@ -8006,7 +8054,7 @@
         <v>10000</v>
       </c>
       <c r="I75">
-        <f>ABS(F75-E75)</f>
+        <f t="shared" si="4"/>
         <v>0.23488962598051977</v>
       </c>
     </row>
@@ -8027,7 +8075,7 @@
         <v>10000</v>
       </c>
       <c r="I76">
-        <f>ABS(F76-E76)</f>
+        <f t="shared" si="4"/>
         <v>3.4869323532189966E-2</v>
       </c>
     </row>

--- a/results/KerasTraining.xlsx
+++ b/results/KerasTraining.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31575" windowHeight="10170" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31575" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="258">
   <si>
     <t>loss: 3.0443e-04 - mean_squared_error: 3.0443e-04 - mean_absolute_error: 0.0080</t>
   </si>
@@ -731,6 +731,81 @@
   </si>
   <si>
     <t>Inference time (GPU):  3.8418056964874268  seconds</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <t>Long runs</t>
+  </si>
+  <si>
+    <t>batch 115216 7201x7201 data</t>
+  </si>
+  <si>
+    <t>epoch 1000</t>
+  </si>
+  <si>
+    <t>loss: 3.2716e-06 - mean_squared_error: 3.2716e-06 - mean_absolute_error: 3.3996e-04</t>
+  </si>
+  <si>
+    <t>Training time  28130.3430352211  seconds</t>
+  </si>
+  <si>
+    <t>CBar error =  89.67707550837889  CBarObs= 12.497717170746977  CBarPred= 102.17479267912587</t>
+  </si>
+  <si>
+    <t>Inference time:  1013.4813346862793  seconds</t>
+  </si>
+  <si>
+    <t>Training time  7968.715792894363  seconds</t>
+  </si>
+  <si>
+    <t>for 200 epoch with full data, 28804 batch</t>
+  </si>
+  <si>
+    <t>batch 230432</t>
+  </si>
+  <si>
+    <t>CBar error =  89.70095302374934  CBarObs= 12.497717170746977  CBarPred= 102.19867019449632</t>
+  </si>
+  <si>
+    <t>Inference time:  0.9794225692749023  seconds</t>
+  </si>
+  <si>
+    <t>loss: 2.9593e-06 - mean_squared_error: 2.9593e-06 - mean_absolute_error: 3.7637e-04</t>
+  </si>
+  <si>
+    <t>maxOi= 36393.0 maxDj= 6153.0 maxCij= 656.0 maxTij= 2270.0</t>
+  </si>
+  <si>
+    <t>scaleOiDj= 2.1982249333663068e-05 scaleCij= 0.0012195121951219512 scaleTij= 0.0003524229074889868</t>
+  </si>
+  <si>
+    <t>100 epoch</t>
+  </si>
+  <si>
+    <t>loss: 2.9404e-06 - mean_squared_error: 2.9404e-06 - mean_absolute_error: 3.8107e-04</t>
+  </si>
+  <si>
+    <t>Training time  2650.5804274082184  seconds</t>
+  </si>
+  <si>
+    <t>CBar error =  86.15846624851491  CBarObs= 12.497717170746977  CBarPred= 98.6561834192619</t>
+  </si>
+  <si>
+    <t>Inference time:  0.9164769649505615  seconds</t>
+  </si>
+  <si>
+    <t>loss: 2.9233e-06 - mean_squared_error: 2.9233e-06 - mean_absolute_error: 3.8310e-04</t>
+  </si>
+  <si>
+    <t>Training time  2639.9246554374695  seconds</t>
+  </si>
+  <si>
+    <t>CBar error =  85.79124932033587  CBarObs= 12.497717170746977  CBarPred= 98.28896649108285</t>
+  </si>
+  <si>
+    <t>Inference time:  0.9934592247009277  seconds</t>
   </si>
 </sst>
 </file>
@@ -832,7 +907,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1742,7 +1816,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1865,7 +1938,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2923,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H350"/>
+  <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4245,6 +4317,134 @@
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>241</v>
+      </c>
+      <c r="F365" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6699,7 +6899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
